--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.130192220651314</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H2">
-        <v>0.130192220651314</v>
+        <v>0.700294</v>
       </c>
       <c r="I2">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J2">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.258106293964699</v>
+        <v>0.4083256666666666</v>
       </c>
       <c r="N2">
-        <v>0.258106293964699</v>
+        <v>1.224977</v>
       </c>
       <c r="O2">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122619</v>
       </c>
       <c r="P2">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122618</v>
       </c>
       <c r="Q2">
-        <v>0.033603431575345</v>
+        <v>0.09531600480422221</v>
       </c>
       <c r="R2">
-        <v>0.033603431575345</v>
+        <v>0.8578440432379999</v>
       </c>
       <c r="S2">
-        <v>4.333052696958459E-05</v>
+        <v>0.0001111051546433077</v>
       </c>
       <c r="T2">
-        <v>4.333052696958459E-05</v>
+        <v>0.0001111051546433077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.130192220651314</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H3">
-        <v>0.130192220651314</v>
+        <v>0.700294</v>
       </c>
       <c r="I3">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J3">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.3920557873817</v>
+        <v>11.43280666666667</v>
       </c>
       <c r="N3">
-        <v>11.3920557873817</v>
+        <v>34.29842</v>
       </c>
       <c r="O3">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="P3">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="Q3">
-        <v>1.483157040742877</v>
+        <v>2.668775303942222</v>
       </c>
       <c r="R3">
-        <v>1.483157040742877</v>
+        <v>24.01897773548</v>
       </c>
       <c r="S3">
-        <v>0.001912482539467509</v>
+        <v>0.003110859435010712</v>
       </c>
       <c r="T3">
-        <v>0.001912482539467509</v>
+        <v>0.003110859435010712</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.130192220651314</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H4">
-        <v>0.130192220651314</v>
+        <v>0.700294</v>
       </c>
       <c r="I4">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J4">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.4105378594447</v>
+        <v>19.47855766666667</v>
       </c>
       <c r="N4">
-        <v>16.4105378594447</v>
+        <v>58.435673</v>
       </c>
       <c r="O4">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868887</v>
       </c>
       <c r="P4">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868886</v>
       </c>
       <c r="Q4">
-        <v>2.136524366003566</v>
+        <v>4.546905687540222</v>
       </c>
       <c r="R4">
-        <v>2.136524366003566</v>
+        <v>40.922151187862</v>
       </c>
       <c r="S4">
-        <v>0.002754978355550333</v>
+        <v>0.005300103173652045</v>
       </c>
       <c r="T4">
-        <v>0.002754978355550333</v>
+        <v>0.005300103173652045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.130192220651314</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H5">
-        <v>0.130192220651314</v>
+        <v>0.700294</v>
       </c>
       <c r="I5">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J5">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.0295644767036</v>
+        <v>18.40625766666667</v>
       </c>
       <c r="N5">
-        <v>18.0295644767036</v>
+        <v>55.218773</v>
       </c>
       <c r="O5">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568314</v>
       </c>
       <c r="P5">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568313</v>
       </c>
       <c r="Q5">
-        <v>2.347309036598088</v>
+        <v>4.296597268806888</v>
       </c>
       <c r="R5">
-        <v>2.347309036598088</v>
+        <v>38.669375419262</v>
       </c>
       <c r="S5">
-        <v>0.003026778300549765</v>
+        <v>0.005008331024483483</v>
       </c>
       <c r="T5">
-        <v>0.003026778300549765</v>
+        <v>0.005008331024483482</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.130192220651314</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H6">
-        <v>0.130192220651314</v>
+        <v>0.700294</v>
       </c>
       <c r="I6">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J6">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>47.65528605504</v>
+        <v>49.25961166666666</v>
       </c>
       <c r="N6">
-        <v>47.65528605504</v>
+        <v>147.778835</v>
       </c>
       <c r="O6">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387352</v>
       </c>
       <c r="P6">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387351</v>
       </c>
       <c r="Q6">
-        <v>6.204347517279255</v>
+        <v>11.49873683083222</v>
       </c>
       <c r="R6">
-        <v>6.204347517279255</v>
+        <v>103.48863147749</v>
       </c>
       <c r="S6">
-        <v>0.008000303386377699</v>
+        <v>0.01340350905827853</v>
       </c>
       <c r="T6">
-        <v>0.008000303386377699</v>
+        <v>0.01340350905827852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.130192220651314</v>
+        <v>0.2334313333333333</v>
       </c>
       <c r="H7">
-        <v>0.130192220651314</v>
+        <v>0.700294</v>
       </c>
       <c r="I7">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="J7">
-        <v>0.01626067793514731</v>
+        <v>0.02791645656725418</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.11418359302274</v>
+        <v>3.610992333333333</v>
       </c>
       <c r="N7">
-        <v>3.11418359302274</v>
+        <v>10.832977</v>
       </c>
       <c r="O7">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086907</v>
       </c>
       <c r="P7">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086906</v>
       </c>
       <c r="Q7">
-        <v>0.4054424774915184</v>
+        <v>0.8429187550264444</v>
       </c>
       <c r="R7">
-        <v>0.4054424774915184</v>
+        <v>7.586268795237999</v>
       </c>
       <c r="S7">
-        <v>0.000522804826232425</v>
+        <v>0.0009825487211861084</v>
       </c>
       <c r="T7">
-        <v>0.000522804826232425</v>
+        <v>0.0009825487211861084</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.423088003359636</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H8">
-        <v>0.423088003359636</v>
+        <v>1.401135</v>
       </c>
       <c r="I8">
-        <v>0.05284261783414115</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J8">
-        <v>0.05284261783414115</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.258106293964699</v>
+        <v>0.4083256666666666</v>
       </c>
       <c r="N8">
-        <v>0.258106293964699</v>
+        <v>1.224977</v>
       </c>
       <c r="O8">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122619</v>
       </c>
       <c r="P8">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122618</v>
       </c>
       <c r="Q8">
-        <v>0.1092016765680797</v>
+        <v>0.1907064609883333</v>
       </c>
       <c r="R8">
-        <v>0.1092016765680797</v>
+        <v>1.716358148895</v>
       </c>
       <c r="S8">
-        <v>0.0001408119935920102</v>
+        <v>0.0002222970935794836</v>
       </c>
       <c r="T8">
-        <v>0.0001408119935920102</v>
+        <v>0.0002222970935794836</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.423088003359636</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H9">
-        <v>0.423088003359636</v>
+        <v>1.401135</v>
       </c>
       <c r="I9">
-        <v>0.05284261783414115</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J9">
-        <v>0.05284261783414115</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.3920557873817</v>
+        <v>11.43280666666667</v>
       </c>
       <c r="N9">
-        <v>11.3920557873817</v>
+        <v>34.29842</v>
       </c>
       <c r="O9">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="P9">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="Q9">
-        <v>4.819842137244909</v>
+        <v>5.339635189633333</v>
       </c>
       <c r="R9">
-        <v>4.819842137244909</v>
+        <v>48.05671670669999</v>
       </c>
       <c r="S9">
-        <v>0.006215028939790252</v>
+        <v>0.006224148763910206</v>
       </c>
       <c r="T9">
-        <v>0.006215028939790252</v>
+        <v>0.006224148763910206</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.423088003359636</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H10">
-        <v>0.423088003359636</v>
+        <v>1.401135</v>
       </c>
       <c r="I10">
-        <v>0.05284261783414115</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J10">
-        <v>0.05284261783414115</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.4105378594447</v>
+        <v>19.47855766666667</v>
       </c>
       <c r="N10">
-        <v>16.4105378594447</v>
+        <v>58.435673</v>
       </c>
       <c r="O10">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868887</v>
       </c>
       <c r="P10">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868886</v>
       </c>
       <c r="Q10">
-        <v>6.943101697010172</v>
+        <v>9.097362965428331</v>
       </c>
       <c r="R10">
-        <v>6.943101697010172</v>
+        <v>81.87626668885498</v>
       </c>
       <c r="S10">
-        <v>0.008952902761145427</v>
+        <v>0.01060434626059192</v>
       </c>
       <c r="T10">
-        <v>0.008952902761145427</v>
+        <v>0.01060434626059192</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.423088003359636</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H11">
-        <v>0.423088003359636</v>
+        <v>1.401135</v>
       </c>
       <c r="I11">
-        <v>0.05284261783414115</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J11">
-        <v>0.05284261783414115</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.0295644767036</v>
+        <v>18.40625766666667</v>
       </c>
       <c r="N11">
-        <v>18.0295644767036</v>
+        <v>55.218773</v>
       </c>
       <c r="O11">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568314</v>
       </c>
       <c r="P11">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568313</v>
       </c>
       <c r="Q11">
-        <v>7.628092435892347</v>
+        <v>8.596550611928331</v>
       </c>
       <c r="R11">
-        <v>7.628092435892347</v>
+        <v>77.36895550735498</v>
       </c>
       <c r="S11">
-        <v>0.009836175935746644</v>
+        <v>0.01002057405888051</v>
       </c>
       <c r="T11">
-        <v>0.009836175935746644</v>
+        <v>0.0100205740588805</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.423088003359636</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H12">
-        <v>0.423088003359636</v>
+        <v>1.401135</v>
       </c>
       <c r="I12">
-        <v>0.05284261783414115</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J12">
-        <v>0.05284261783414115</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.65528605504</v>
+        <v>49.25961166666666</v>
       </c>
       <c r="N12">
-        <v>47.65528605504</v>
+        <v>147.778835</v>
       </c>
       <c r="O12">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387352</v>
       </c>
       <c r="P12">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387351</v>
       </c>
       <c r="Q12">
-        <v>20.16237982655918</v>
+        <v>23.00645533085833</v>
       </c>
       <c r="R12">
-        <v>20.16237982655918</v>
+        <v>207.0580979777249</v>
       </c>
       <c r="S12">
-        <v>0.02599872994776906</v>
+        <v>0.02681748760430773</v>
       </c>
       <c r="T12">
-        <v>0.02599872994776906</v>
+        <v>0.02681748760430773</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.423088003359636</v>
+        <v>0.4670449999999999</v>
       </c>
       <c r="H13">
-        <v>0.423088003359636</v>
+        <v>1.401135</v>
       </c>
       <c r="I13">
-        <v>0.05284261783414115</v>
+        <v>0.0558547186929485</v>
       </c>
       <c r="J13">
-        <v>0.05284261783414115</v>
+        <v>0.05585471869294851</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.11418359302274</v>
+        <v>3.610992333333333</v>
       </c>
       <c r="N13">
-        <v>3.11418359302274</v>
+        <v>10.832977</v>
       </c>
       <c r="O13">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086907</v>
       </c>
       <c r="P13">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086906</v>
       </c>
       <c r="Q13">
-        <v>1.317573718467328</v>
+        <v>1.686495914321666</v>
       </c>
       <c r="R13">
-        <v>1.317573718467328</v>
+        <v>15.178463228895</v>
       </c>
       <c r="S13">
-        <v>0.001698968256097763</v>
+        <v>0.001965864911678663</v>
       </c>
       <c r="T13">
-        <v>0.001698968256097763</v>
+        <v>0.001965864911678663</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.478284102133961</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H14">
-        <v>0.478284102133961</v>
+        <v>1.449797</v>
       </c>
       <c r="I14">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J14">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.258106293964699</v>
+        <v>0.4083256666666666</v>
       </c>
       <c r="N14">
-        <v>0.258106293964699</v>
+        <v>1.224977</v>
       </c>
       <c r="O14">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122619</v>
       </c>
       <c r="P14">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122618</v>
       </c>
       <c r="Q14">
-        <v>0.1234481370640302</v>
+        <v>0.1973297755187778</v>
       </c>
       <c r="R14">
-        <v>0.1234481370640302</v>
+        <v>1.775967979669</v>
       </c>
       <c r="S14">
-        <v>0.0001591823388752528</v>
+        <v>0.0002300175638894572</v>
       </c>
       <c r="T14">
-        <v>0.0001591823388752528</v>
+        <v>0.0002300175638894572</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.478284102133961</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H15">
-        <v>0.478284102133961</v>
+        <v>1.449797</v>
       </c>
       <c r="I15">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J15">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.3920557873817</v>
+        <v>11.43280666666667</v>
       </c>
       <c r="N15">
-        <v>11.3920557873817</v>
+        <v>34.29842</v>
       </c>
       <c r="O15">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="P15">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="Q15">
-        <v>5.448639173727851</v>
+        <v>5.525082935637777</v>
       </c>
       <c r="R15">
-        <v>5.448639173727851</v>
+        <v>49.72574642074</v>
       </c>
       <c r="S15">
-        <v>0.007025842171368349</v>
+        <v>0.006440316033409148</v>
       </c>
       <c r="T15">
-        <v>0.007025842171368349</v>
+        <v>0.006440316033409148</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.478284102133961</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H16">
-        <v>0.478284102133961</v>
+        <v>1.449797</v>
       </c>
       <c r="I16">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J16">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.4105378594447</v>
+        <v>19.47855766666667</v>
       </c>
       <c r="N16">
-        <v>16.4105378594447</v>
+        <v>58.435673</v>
       </c>
       <c r="O16">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868887</v>
       </c>
       <c r="P16">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868886</v>
       </c>
       <c r="Q16">
-        <v>7.848899365639881</v>
+        <v>9.413318156486778</v>
       </c>
       <c r="R16">
-        <v>7.848899365639881</v>
+        <v>84.719863408381</v>
       </c>
       <c r="S16">
-        <v>0.01012089925643025</v>
+        <v>0.01097263960686685</v>
       </c>
       <c r="T16">
-        <v>0.01012089925643025</v>
+        <v>0.01097263960686685</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.478284102133961</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H17">
-        <v>0.478284102133961</v>
+        <v>1.449797</v>
       </c>
       <c r="I17">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J17">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.0295644767036</v>
+        <v>18.40625766666667</v>
       </c>
       <c r="N17">
-        <v>18.0295644767036</v>
+        <v>55.218773</v>
       </c>
       <c r="O17">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568314</v>
       </c>
       <c r="P17">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568313</v>
       </c>
       <c r="Q17">
-        <v>8.623254057606541</v>
+        <v>8.895112382120111</v>
       </c>
       <c r="R17">
-        <v>8.623254057606541</v>
+        <v>80.056011439081</v>
       </c>
       <c r="S17">
-        <v>0.01111940432842129</v>
+        <v>0.01036859275433329</v>
       </c>
       <c r="T17">
-        <v>0.01111940432842129</v>
+        <v>0.01036859275433329</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.478284102133961</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H18">
-        <v>0.478284102133961</v>
+        <v>1.449797</v>
       </c>
       <c r="I18">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J18">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>47.65528605504</v>
+        <v>49.25961166666666</v>
       </c>
       <c r="N18">
-        <v>47.65528605504</v>
+        <v>147.778835</v>
       </c>
       <c r="O18">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387352</v>
       </c>
       <c r="P18">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387351</v>
       </c>
       <c r="Q18">
-        <v>22.79276570277188</v>
+        <v>23.80547907183277</v>
       </c>
       <c r="R18">
-        <v>22.79276570277188</v>
+        <v>214.249311646495</v>
       </c>
       <c r="S18">
-        <v>0.02939052658300537</v>
+        <v>0.02774887007766028</v>
       </c>
       <c r="T18">
-        <v>0.02939052658300537</v>
+        <v>0.02774887007766028</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.478284102133961</v>
+        <v>0.4832656666666666</v>
       </c>
       <c r="H19">
-        <v>0.478284102133961</v>
+        <v>1.449797</v>
       </c>
       <c r="I19">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202473</v>
       </c>
       <c r="J19">
-        <v>0.05973647048490489</v>
+        <v>0.05779457625202474</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.11418359302274</v>
+        <v>3.610992333333333</v>
       </c>
       <c r="N19">
-        <v>3.11418359302274</v>
+        <v>10.832977</v>
       </c>
       <c r="O19">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086907</v>
       </c>
       <c r="P19">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086906</v>
       </c>
       <c r="Q19">
-        <v>1.489464503669194</v>
+        <v>1.745068617296555</v>
       </c>
       <c r="R19">
-        <v>1.489464503669194</v>
+        <v>15.705617555669</v>
       </c>
       <c r="S19">
-        <v>0.001920615806804377</v>
+        <v>0.002034140215865703</v>
       </c>
       <c r="T19">
-        <v>0.001920615806804377</v>
+        <v>0.002034140215865703</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.9635118537745</v>
+        <v>2.112636</v>
       </c>
       <c r="H20">
-        <v>1.9635118537745</v>
+        <v>6.337908000000001</v>
       </c>
       <c r="I20">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784442</v>
       </c>
       <c r="J20">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784443</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.258106293964699</v>
+        <v>0.4083256666666666</v>
       </c>
       <c r="N20">
-        <v>0.258106293964699</v>
+        <v>1.224977</v>
       </c>
       <c r="O20">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122619</v>
       </c>
       <c r="P20">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122618</v>
       </c>
       <c r="Q20">
-        <v>0.5067947677334921</v>
+        <v>0.8626435031240001</v>
       </c>
       <c r="R20">
-        <v>0.5067947677334921</v>
+        <v>7.763791528116</v>
       </c>
       <c r="S20">
-        <v>0.0006534952926483961</v>
+        <v>0.001005540884906992</v>
       </c>
       <c r="T20">
-        <v>0.0006534952926483961</v>
+        <v>0.001005540884906992</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.9635118537745</v>
+        <v>2.112636</v>
       </c>
       <c r="H21">
-        <v>1.9635118537745</v>
+        <v>6.337908000000001</v>
       </c>
       <c r="I21">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784442</v>
       </c>
       <c r="J21">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784443</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.3920557873817</v>
+        <v>11.43280666666667</v>
       </c>
       <c r="N21">
-        <v>11.3920557873817</v>
+        <v>34.29842</v>
       </c>
       <c r="O21">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="P21">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="Q21">
-        <v>22.36843657738437</v>
+        <v>24.15335894504</v>
       </c>
       <c r="R21">
-        <v>22.36843657738437</v>
+        <v>217.38023050536</v>
       </c>
       <c r="S21">
-        <v>0.02884336804146302</v>
+        <v>0.02815437644764895</v>
       </c>
       <c r="T21">
-        <v>0.02884336804146302</v>
+        <v>0.02815437644764895</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.9635118537745</v>
+        <v>2.112636</v>
       </c>
       <c r="H22">
-        <v>1.9635118537745</v>
+        <v>6.337908000000001</v>
       </c>
       <c r="I22">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784442</v>
       </c>
       <c r="J22">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784443</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.4105378594447</v>
+        <v>19.47855766666667</v>
       </c>
       <c r="N22">
-        <v>16.4105378594447</v>
+        <v>58.435673</v>
       </c>
       <c r="O22">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868887</v>
       </c>
       <c r="P22">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868886</v>
       </c>
       <c r="Q22">
-        <v>32.22228561383488</v>
+        <v>41.151102154676</v>
       </c>
       <c r="R22">
-        <v>32.22228561383488</v>
+        <v>370.3599193920841</v>
       </c>
       <c r="S22">
-        <v>0.04154958438340964</v>
+        <v>0.04796780538618735</v>
       </c>
       <c r="T22">
-        <v>0.04154958438340964</v>
+        <v>0.04796780538618735</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.9635118537745</v>
+        <v>2.112636</v>
       </c>
       <c r="H23">
-        <v>1.9635118537745</v>
+        <v>6.337908000000001</v>
       </c>
       <c r="I23">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784442</v>
       </c>
       <c r="J23">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784443</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>18.0295644767036</v>
+        <v>18.40625766666667</v>
       </c>
       <c r="N23">
-        <v>18.0295644767036</v>
+        <v>55.218773</v>
       </c>
       <c r="O23">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568314</v>
       </c>
       <c r="P23">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568313</v>
       </c>
       <c r="Q23">
-        <v>35.40126356839916</v>
+        <v>38.885722571876</v>
       </c>
       <c r="R23">
-        <v>35.40126356839916</v>
+        <v>349.971503146884</v>
       </c>
       <c r="S23">
-        <v>0.04564877257754123</v>
+        <v>0.04532716440055472</v>
       </c>
       <c r="T23">
-        <v>0.04564877257754123</v>
+        <v>0.04532716440055471</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.9635118537745</v>
+        <v>2.112636</v>
       </c>
       <c r="H24">
-        <v>1.9635118537745</v>
+        <v>6.337908000000001</v>
       </c>
       <c r="I24">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784442</v>
       </c>
       <c r="J24">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784443</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>47.65528605504</v>
+        <v>49.25961166666666</v>
       </c>
       <c r="N24">
-        <v>47.65528605504</v>
+        <v>147.778835</v>
       </c>
       <c r="O24">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387352</v>
       </c>
       <c r="P24">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387351</v>
       </c>
       <c r="Q24">
-        <v>93.57171906408567</v>
+        <v>104.06762895302</v>
       </c>
       <c r="R24">
-        <v>93.57171906408567</v>
+        <v>936.60866057718</v>
       </c>
       <c r="S24">
-        <v>0.120657674124912</v>
+        <v>0.1213064902577145</v>
       </c>
       <c r="T24">
-        <v>0.120657674124912</v>
+        <v>0.1213064902577145</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.9635118537745</v>
+        <v>2.112636</v>
       </c>
       <c r="H25">
-        <v>1.9635118537745</v>
+        <v>6.337908000000001</v>
       </c>
       <c r="I25">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784442</v>
       </c>
       <c r="J25">
-        <v>0.2452376471984616</v>
+        <v>0.2526537902784443</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.11418359302274</v>
+        <v>3.610992333333333</v>
       </c>
       <c r="N25">
-        <v>3.11418359302274</v>
+        <v>10.832977</v>
       </c>
       <c r="O25">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086907</v>
       </c>
       <c r="P25">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086906</v>
       </c>
       <c r="Q25">
-        <v>6.114736399730213</v>
+        <v>7.628712399124001</v>
       </c>
       <c r="R25">
-        <v>6.114736399730213</v>
+        <v>68.65841159211601</v>
       </c>
       <c r="S25">
-        <v>0.007884752778487334</v>
+        <v>0.008892412901431694</v>
       </c>
       <c r="T25">
-        <v>0.007884752778487334</v>
+        <v>0.008892412901431694</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.81912466569464</v>
+        <v>4.835312666666667</v>
       </c>
       <c r="H26">
-        <v>4.81912466569464</v>
+        <v>14.505938</v>
       </c>
       <c r="I26">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="J26">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.258106293964699</v>
+        <v>0.4083256666666666</v>
       </c>
       <c r="N26">
-        <v>0.258106293964699</v>
+        <v>1.224977</v>
       </c>
       <c r="O26">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122619</v>
       </c>
       <c r="P26">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122618</v>
       </c>
       <c r="Q26">
-        <v>1.243846407616312</v>
+        <v>1.974382268158444</v>
       </c>
       <c r="R26">
-        <v>1.243846407616312</v>
+        <v>17.769440413426</v>
       </c>
       <c r="S26">
-        <v>0.001603899297915266</v>
+        <v>0.002301439802049188</v>
       </c>
       <c r="T26">
-        <v>0.001603899297915266</v>
+        <v>0.002301439802049187</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>4.81912466569464</v>
+        <v>4.835312666666667</v>
       </c>
       <c r="H27">
-        <v>4.81912466569464</v>
+        <v>14.505938</v>
       </c>
       <c r="I27">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="J27">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>11.3920557873817</v>
+        <v>11.43280666666667</v>
       </c>
       <c r="N27">
-        <v>11.3920557873817</v>
+        <v>34.29842</v>
       </c>
       <c r="O27">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="P27">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="Q27">
-        <v>54.89973703794053</v>
+        <v>55.28119489088444</v>
       </c>
       <c r="R27">
-        <v>54.89973703794053</v>
+        <v>497.53075401796</v>
       </c>
       <c r="S27">
-        <v>0.07079141697215667</v>
+        <v>0.06443855593647872</v>
       </c>
       <c r="T27">
-        <v>0.07079141697215667</v>
+        <v>0.06443855593647871</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>4.81912466569464</v>
+        <v>4.835312666666667</v>
       </c>
       <c r="H28">
-        <v>4.81912466569464</v>
+        <v>14.505938</v>
       </c>
       <c r="I28">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="J28">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.4105378594447</v>
+        <v>19.47855766666667</v>
       </c>
       <c r="N28">
-        <v>16.4105378594447</v>
+        <v>58.435673</v>
       </c>
       <c r="O28">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868887</v>
       </c>
       <c r="P28">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868886</v>
       </c>
       <c r="Q28">
-        <v>79.08442777576568</v>
+        <v>94.18491661403046</v>
       </c>
       <c r="R28">
-        <v>79.08442777576568</v>
+        <v>847.664249526274</v>
       </c>
       <c r="S28">
-        <v>0.1019767854044471</v>
+        <v>0.1097867010578411</v>
       </c>
       <c r="T28">
-        <v>0.1019767854044471</v>
+        <v>0.1097867010578411</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>4.81912466569464</v>
+        <v>4.835312666666667</v>
       </c>
       <c r="H29">
-        <v>4.81912466569464</v>
+        <v>14.505938</v>
       </c>
       <c r="I29">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="J29">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>18.0295644767036</v>
+        <v>18.40625766666667</v>
       </c>
       <c r="N29">
-        <v>18.0295644767036</v>
+        <v>55.218773</v>
       </c>
       <c r="O29">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568314</v>
       </c>
       <c r="P29">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568313</v>
       </c>
       <c r="Q29">
-        <v>86.88671888141421</v>
+        <v>89.00001084156378</v>
       </c>
       <c r="R29">
-        <v>86.88671888141421</v>
+        <v>801.0000975740741</v>
       </c>
       <c r="S29">
-        <v>0.1120375848326193</v>
+        <v>0.103742912726132</v>
       </c>
       <c r="T29">
-        <v>0.1120375848326193</v>
+        <v>0.103742912726132</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>4.81912466569464</v>
+        <v>4.835312666666667</v>
       </c>
       <c r="H30">
-        <v>4.81912466569464</v>
+        <v>14.505938</v>
       </c>
       <c r="I30">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="J30">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>47.65528605504</v>
+        <v>49.25961166666666</v>
       </c>
       <c r="N30">
-        <v>47.65528605504</v>
+        <v>147.778835</v>
       </c>
       <c r="O30">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387352</v>
       </c>
       <c r="P30">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387351</v>
       </c>
       <c r="Q30">
-        <v>229.6567644785771</v>
+        <v>238.1856242469144</v>
       </c>
       <c r="R30">
-        <v>229.6567644785771</v>
+        <v>2143.67061822223</v>
       </c>
       <c r="S30">
-        <v>0.2961348933865351</v>
+        <v>0.2776412069528322</v>
       </c>
       <c r="T30">
-        <v>0.2961348933865351</v>
+        <v>0.2776412069528321</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>4.81912466569464</v>
+        <v>4.835312666666667</v>
       </c>
       <c r="H31">
-        <v>4.81912466569464</v>
+        <v>14.505938</v>
       </c>
       <c r="I31">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="J31">
-        <v>0.6018964399421213</v>
+        <v>0.5782633981503226</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>3.11418359302274</v>
+        <v>3.610992333333333</v>
       </c>
       <c r="N31">
-        <v>3.11418359302274</v>
+        <v>10.832977</v>
       </c>
       <c r="O31">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086907</v>
       </c>
       <c r="P31">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086906</v>
       </c>
       <c r="Q31">
-        <v>15.00763896663745</v>
+        <v>17.46027696860289</v>
       </c>
       <c r="R31">
-        <v>15.00763896663745</v>
+        <v>157.142492717426</v>
       </c>
       <c r="S31">
-        <v>0.01935186004844792</v>
+        <v>0.02035258167498933</v>
       </c>
       <c r="T31">
-        <v>0.01935186004844792</v>
+        <v>0.02035258167498933</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.192366972195356</v>
+        <v>0.2300916666666667</v>
       </c>
       <c r="H32">
-        <v>0.192366972195356</v>
+        <v>0.6902750000000001</v>
       </c>
       <c r="I32">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="J32">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.258106293964699</v>
+        <v>0.4083256666666666</v>
       </c>
       <c r="N32">
-        <v>0.258106293964699</v>
+        <v>1.224977</v>
       </c>
       <c r="O32">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122619</v>
       </c>
       <c r="P32">
-        <v>0.002664742954900178</v>
+        <v>0.003979916089122618</v>
       </c>
       <c r="Q32">
-        <v>0.04965112627455363</v>
+        <v>0.09395233318611111</v>
       </c>
       <c r="R32">
-        <v>0.04965112627455363</v>
+        <v>0.8455709986750001</v>
       </c>
       <c r="S32">
-        <v>6.402350489966909E-05</v>
+        <v>0.0001095155900541904</v>
       </c>
       <c r="T32">
-        <v>6.402350489966909E-05</v>
+        <v>0.0001095155900541904</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.192366972195356</v>
+        <v>0.2300916666666667</v>
       </c>
       <c r="H33">
-        <v>0.192366972195356</v>
+        <v>0.6902750000000001</v>
       </c>
       <c r="I33">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="J33">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>11.3920557873817</v>
+        <v>11.43280666666667</v>
       </c>
       <c r="N33">
-        <v>11.3920557873817</v>
+        <v>34.29842</v>
       </c>
       <c r="O33">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="P33">
-        <v>0.1176139486370181</v>
+        <v>0.1114346094575531</v>
       </c>
       <c r="Q33">
-        <v>2.1914552788992</v>
+        <v>2.630593540611111</v>
       </c>
       <c r="R33">
-        <v>2.1914552788992</v>
+        <v>23.6753418655</v>
       </c>
       <c r="S33">
-        <v>0.002825809972772264</v>
+        <v>0.00306635284109534</v>
       </c>
       <c r="T33">
-        <v>0.002825809972772264</v>
+        <v>0.00306635284109534</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.192366972195356</v>
+        <v>0.2300916666666667</v>
       </c>
       <c r="H34">
-        <v>0.192366972195356</v>
+        <v>0.6902750000000001</v>
       </c>
       <c r="I34">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="J34">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>16.4105378594447</v>
+        <v>19.47855766666667</v>
       </c>
       <c r="N34">
-        <v>16.4105378594447</v>
+        <v>58.435673</v>
       </c>
       <c r="O34">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868887</v>
       </c>
       <c r="P34">
-        <v>0.1694257992525313</v>
+        <v>0.1898558708868886</v>
       </c>
       <c r="Q34">
-        <v>3.156845480118635</v>
+        <v>4.481853797786112</v>
       </c>
       <c r="R34">
-        <v>3.156845480118635</v>
+        <v>40.336684180075</v>
       </c>
       <c r="S34">
-        <v>0.004070649091548542</v>
+        <v>0.005224275401749358</v>
       </c>
       <c r="T34">
-        <v>0.004070649091548542</v>
+        <v>0.005224275401749358</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.192366972195356</v>
+        <v>0.2300916666666667</v>
       </c>
       <c r="H35">
-        <v>0.192366972195356</v>
+        <v>0.6902750000000001</v>
       </c>
       <c r="I35">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="J35">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>18.0295644767036</v>
+        <v>18.40625766666667</v>
       </c>
       <c r="N35">
-        <v>18.0295644767036</v>
+        <v>55.218773</v>
       </c>
       <c r="O35">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568314</v>
       </c>
       <c r="P35">
-        <v>0.1861409661160197</v>
+        <v>0.1794042525568313</v>
       </c>
       <c r="Q35">
-        <v>3.46829272838442</v>
+        <v>4.235126503619445</v>
       </c>
       <c r="R35">
-        <v>3.46829272838442</v>
+        <v>38.116138532575</v>
       </c>
       <c r="S35">
-        <v>0.004472250141141494</v>
+        <v>0.004936677592447368</v>
       </c>
       <c r="T35">
-        <v>0.004472250141141494</v>
+        <v>0.004936677592447367</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.192366972195356</v>
+        <v>0.2300916666666667</v>
       </c>
       <c r="H36">
-        <v>0.192366972195356</v>
+        <v>0.6902750000000001</v>
       </c>
       <c r="I36">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="J36">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>47.65528605504</v>
+        <v>49.25961166666666</v>
       </c>
       <c r="N36">
-        <v>47.65528605504</v>
+        <v>147.778835</v>
       </c>
       <c r="O36">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387352</v>
       </c>
       <c r="P36">
-        <v>0.4920030652033955</v>
+        <v>0.4801293110387351</v>
       </c>
       <c r="Q36">
-        <v>9.167303087511616</v>
+        <v>11.33422614773611</v>
       </c>
       <c r="R36">
-        <v>9.167303087511616</v>
+        <v>102.008035329625</v>
       </c>
       <c r="S36">
-        <v>0.01182093777479629</v>
+        <v>0.01321174708794194</v>
       </c>
       <c r="T36">
-        <v>0.01182093777479629</v>
+        <v>0.01321174708794193</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.192366972195356</v>
+        <v>0.2300916666666667</v>
       </c>
       <c r="H37">
-        <v>0.192366972195356</v>
+        <v>0.6902750000000001</v>
       </c>
       <c r="I37">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="J37">
-        <v>0.02402614660522385</v>
+        <v>0.02751706005900576</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>3.11418359302274</v>
+        <v>3.610992333333333</v>
       </c>
       <c r="N37">
-        <v>3.11418359302274</v>
+        <v>10.832977</v>
       </c>
       <c r="O37">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086907</v>
       </c>
       <c r="P37">
-        <v>0.03215147783613541</v>
+        <v>0.03519603997086906</v>
       </c>
       <c r="Q37">
-        <v>0.5990660686502393</v>
+        <v>0.8308592442972224</v>
       </c>
       <c r="R37">
-        <v>0.5990660686502393</v>
+        <v>7.477733198675001</v>
       </c>
       <c r="S37">
-        <v>0.0007724761200655946</v>
+        <v>0.0009684915457175716</v>
       </c>
       <c r="T37">
-        <v>0.0007724761200655946</v>
+        <v>0.0009684915457175715</v>
       </c>
     </row>
   </sheetData>
